--- a/dataset/Patient_Tests.xlsx
+++ b/dataset/Patient_Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shipr\OneDrive\Documents\project\hospital-performance-dashboard\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41FCAD-9AE8-42AF-8713-D6BCD6C0B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C060D8-D60A-47CA-B9D2-7F9D3AC4DF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="144">
   <si>
     <t>patient_test_id</t>
   </si>
@@ -98,15 +96,9 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>PT002</t>
   </si>
   <si>
@@ -116,18 +108,12 @@
     <t>Abnormal</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>PT003</t>
   </si>
   <si>
     <t>TEST007</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
     <t>PT004</t>
   </si>
   <si>
@@ -146,9 +132,6 @@
     <t>2023-05-21</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -167,9 +150,6 @@
     <t>2023-05-22</t>
   </si>
   <si>
-    <t>3500</t>
-  </si>
-  <si>
     <t>PT007</t>
   </si>
   <si>
@@ -188,9 +168,6 @@
     <t>2023-06-06</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
     <t>PT008</t>
   </si>
   <si>
@@ -212,9 +189,6 @@
     <t>TEST009</t>
   </si>
   <si>
-    <t>4500</t>
-  </si>
-  <si>
     <t>PT010</t>
   </si>
   <si>
@@ -240,9 +214,6 @@
   </si>
   <si>
     <t>TEST011</t>
-  </si>
-  <si>
-    <t>1800</t>
   </si>
   <si>
     <t>PT012</t>
@@ -530,8 +501,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,27 +923,27 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
+      <c r="L2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -986,30 +958,30 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+      <c r="J3" s="1">
+        <v>800</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1024,71 +996,71 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
+        <v>116</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1500</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -1097,106 +1069,106 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="J6" s="1">
+        <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
+        <v>119</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3500</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2500</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1205,497 +1177,497 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
+        <v>121</v>
+      </c>
+      <c r="J9" s="1">
+        <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
+        <v>122</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4500</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
+        <v>123</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1500</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
+        <v>124</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1800</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
+        <v>125</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1000</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
+        <v>126</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1800</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="1">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>22</v>
+      <c r="L15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
+        <v>128</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4500</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="J17" s="1">
+        <v>800</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
+        <v>130</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1500</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" t="s">
-        <v>68</v>
+        <v>131</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1800</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
+        <v>132</v>
+      </c>
+      <c r="J20" s="1">
+        <v>800</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1000</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
+        <v>134</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1800</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -1704,293 +1676,293 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
+        <v>135</v>
+      </c>
+      <c r="J23" s="1">
+        <v>500</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" t="s">
-        <v>58</v>
+        <v>136</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4500</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" t="s">
-        <v>29</v>
+        <v>137</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1500</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
+        <v>138</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1000</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
+        <v>139</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1500</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
-      </c>
-      <c r="J28" t="s">
-        <v>68</v>
+        <v>140</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1800</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
+        <v>141</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4500</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" t="s">
-        <v>68</v>
+        <v>142</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1800</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="J31" s="1">
+        <v>800</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
